--- a/biology/Zoologie/Founingo_hollandais/Founingo_hollandais.xlsx
+++ b/biology/Zoologie/Founingo_hollandais/Founingo_hollandais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alectroenas nitidissimus
 Le Founingo hollandais (Alectroenas nitidissimus) était une espèce de pigeons mauriciens de la famille des Columbidae. Il est connu seulement de trois peaux et de diverses illustrations, et n'a plus été aperçu depuis 1840. Cette espèce très colorée fut abondamment chassée. Elle a aussi souffert de l'introduction de rats puis de macaques.
